--- a/output/Total_time_range_data/海南省/三沙市_学习考察.xlsx
+++ b/output/Total_time_range_data/海南省/三沙市_学习考察.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F15"/>
+  <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,478 +436,525 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>code</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>province</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>city</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>topic</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>date</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>url</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>content</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>海南省</t>
-        </is>
+      <c r="A2" t="n">
+        <v>224</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>三沙市</t>
+          <t>海南省</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
+          <t>三沙市</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
           <t>市人大常委会组织市人大代表赴福建厦门泉州等兄弟市考察学习</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>2013-12-25</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>http://www.sansha.gov.cn/sansha/sysdt/201312/40e427d16d5c4b1fb7f42bc8b09e2bd9.shtml</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>['市人大常委会组织市人大代表赴福建厦门、泉州等兄弟市考察学习_三沙动态_三沙市人民政府网', '根据市人大常委会2013年工作要点安排，11月21日至26日，市人大常委会委员、市人大常委会办公室主任李锋带领市人大代表考察学习组一行赴福建厦门、泉州等兄弟市考察学习，重点考察学习福建厦门、泉州等兄弟市人大立法、监督以及加强人大代表工作的成功经验与做法。 此次外出考察学习，得到了福建省人大常委会办公厅以及有关兄弟市人大常委会的高度重视和周到安排，厦门市人大常委会和泉州市人大常委会领导及有关部门负责人接见了考察组一行，并进行交流座谈。 通过这次外出学习交流、座谈，实地参观考察，代表们感悟很深、收获很大，大家一致认为这次外出考察学习，开拓了视野，增长了见识，看到了差距，拓宽了思路，增强了依法履职、发挥作用、服务与建设“主权三沙、美丽三沙、幸福三沙”的责任感和使命感，达到了预期的目的。', '省直部门 &gt; 海南省人民政府办公厅 &gt; 海南省发展和改革委员会 &gt; 海南省营商环境建设厅 &gt; 海南省自然资源和规划厅 &gt; 海南省旅游和文化广电体育厅 &gt; 海南省生态环境厅 &gt; 海南省农业农村厅 &gt; 海南省工业和信息化厅 &gt; 海南省商务厅 &gt; 海南省科学技术厅 &gt; 海南省财政厅 &gt; 海南省人力资源和社会保障厅 &gt; 海南省教育厅 &gt; 海南省卫生健康委员会 &gt; 海南省公安厅 &gt; 海南省司法厅 &gt; 海南省民政厅 &gt; 海南省民族宗教事务委员会 &gt; 海南省住房和城乡建设厅 &gt; 海南省交通运输厅 &gt; 海南省审计厅 &gt; 海南省外事办公室 &gt; 海南省水务厅 &gt; 海南省退役军人事务厅 &gt; 海南省应急管理厅 &gt; 海南省国有资产监督管理委员会 &gt; 海南省地方金融监督管理局 &gt; 海南省统计局 &gt; 海南省市场监督管理局 &gt; 海南省林业局 &gt; 海南省医疗保障局 &gt; 海南省乡村振兴局 &gt; 海南省地质局 &gt; 海南省供销合作联社 &gt; 海南省住房公积金管理局 &gt; 海南省社会保险服务中心']</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>海南省</t>
-        </is>
+      <c r="A3" t="n">
+        <v>224</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>三沙市</t>
+          <t>海南省</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
+          <t>三沙市</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
           <t>张军率三沙市党政代表团赴上海考察学习</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>2018-11-17</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>http://www.sansha.gov.cn/sansha/dsgtrfbxdc/201811/f0536d176f89441680b5fdd6f26a7b0e.shtml</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>['省直部门 &gt; 海南省人民政府办公厅 &gt; 海南省发展和改革委员会 &gt; 海南省营商环境建设厅 &gt; 海南省自然资源和规划厅 &gt; 海南省旅游和文化广电体育厅 &gt; 海南省生态环境厅 &gt; 海南省农业农村厅 &gt; 海南省工业和信息化厅 &gt; 海南省商务厅 &gt; 海南省科学技术厅 &gt; 海南省财政厅 &gt; 海南省人力资源和社会保障厅 &gt; 海南省教育厅 &gt; 海南省卫生健康委员会 &gt; 海南省公安厅 &gt; 海南省司法厅 &gt; 海南省民政厅 &gt; 海南省民族宗教事务委员会 &gt; 海南省住房和城乡建设厅 &gt; 海南省交通运输厅 &gt; 海南省审计厅 &gt; 海南省外事办公室 &gt; 海南省水务厅 &gt; 海南省退役军人事务厅 &gt; 海南省应急管理厅 &gt; 海南省国有资产监督管理委员会 &gt; 海南省地方金融监督管理局 &gt; 海南省统计局 &gt; 海南省市场监督管理局 &gt; 海南省林业局 &gt; 海南省医疗保障局 &gt; 海南省乡村振兴局 &gt; 海南省地质局 &gt; 海南省供销合作联社 &gt; 海南省住房公积金管理局 &gt; 海南省社会保险服务中心']</t>
         </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>海南省</t>
-        </is>
+      <c r="A4" t="n">
+        <v>224</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>三沙市</t>
+          <t>海南省</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
+          <t>三沙市</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
           <t>刘红建带队赴陵水学习考察</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>2022-02-19</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>http://www.sansha.gov.cn/sansha/sysdt/202202/bdd6bfe24e0645789c00cdca3834f625.shtml</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="G4" t="inlineStr">
         <is>
           <t>['本网讯 2月18日，市委常委、副市长刘红建率队前往陵水县学习考察，交流工作。陵水县委常委、常务副县长符史锦陪同。', '考察组实地考察了陵水县的现代农业产业园、居民小区和海洋生物保护站。刘红建边听边看边问，详细了解陵水县在立体式蔬菜大棚、管道垃圾收集系统、海洋生物保护及利用等方面的成功经验和先进做法，并结合三沙实际，与陵水县干部深入交流探讨。', '本次活动开阔了视野，增长了见识，增强了干事创业的动力和信心。考察组认为有关部门要以此次学习考察为契机，立足我市实际，紧扣市委、市政府确定的任务目标，复制好经验、创造好办法，扎实贯彻落实省委市委指示要求，积极推动项目建设、城市管理、生物保护等重点工作落地见效。（文/林庆）', '省直部门 &gt; 海南省人民政府办公厅 &gt; 海南省发展和改革委员会 &gt; 海南省营商环境建设厅 &gt; 海南省自然资源和规划厅 &gt; 海南省旅游和文化广电体育厅 &gt; 海南省生态环境厅 &gt; 海南省农业农村厅 &gt; 海南省工业和信息化厅 &gt; 海南省商务厅 &gt; 海南省科学技术厅 &gt; 海南省财政厅 &gt; 海南省人力资源和社会保障厅 &gt; 海南省教育厅 &gt; 海南省卫生健康委员会 &gt; 海南省公安厅 &gt; 海南省司法厅 &gt; 海南省民政厅 &gt; 海南省民族宗教事务委员会 &gt; 海南省住房和城乡建设厅 &gt; 海南省交通运输厅 &gt; 海南省审计厅 &gt; 海南省外事办公室 &gt; 海南省水务厅 &gt; 海南省退役军人事务厅 &gt; 海南省应急管理厅 &gt; 海南省国有资产监督管理委员会 &gt; 海南省地方金融监督管理局 &gt; 海南省统计局 &gt; 海南省市场监督管理局 &gt; 海南省林业局 &gt; 海南省医疗保障局 &gt; 海南省乡村振兴局 &gt; 海南省地质局 &gt; 海南省供销合作联社 &gt; 海南省住房公积金管理局 &gt; 海南省社会保险服务中心']</t>
         </is>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>海南省</t>
-        </is>
+      <c r="A5" t="n">
+        <v>224</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>三沙市</t>
+          <t>海南省</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
+          <t>三沙市</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
           <t>市人大常委会组织首批人大代表赴山东青岛日照等地考察学习</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>2013-12-25</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>http://www.sansha.gov.cn/sansha/sysdt/201312/35f9bb8dde5c408a98b3535f10f15b60.shtml</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="G5" t="inlineStr">
         <is>
           <t>['市人大常委会组织首批人大代表赴山东青岛、日照等地考察学习_三沙动态_三沙市人民政府网', '8月20日至26日，市人大常委蔡喜宏和市人大常委、市人大常委会办公室主任李锋带领首批市人大代表考察学习组一行赴山东青岛、日照等兄弟市考察学习，重点考察学习兄弟市人大立法、监督以及加强人大代表工作的成功经验与做法。 山东省人大常委会秘书长翟鲁宁、副秘书长赵瑞林、王守涛接见考察组一行。通过几天的实地参观考察，代表们感悟很深、收获很大，大家一致认为这次外出考察学习，开拓了眼界，提高了认识，看到了差距，拓宽了思路，增强了依法履职、发挥作用、服务与建设“主权三沙”、“幸福三沙”、“美丽三沙”的责任感和使命感，达到了预期的目的。', '省直部门 &gt; 海南省人民政府办公厅 &gt; 海南省发展和改革委员会 &gt; 海南省营商环境建设厅 &gt; 海南省自然资源和规划厅 &gt; 海南省旅游和文化广电体育厅 &gt; 海南省生态环境厅 &gt; 海南省农业农村厅 &gt; 海南省工业和信息化厅 &gt; 海南省商务厅 &gt; 海南省科学技术厅 &gt; 海南省财政厅 &gt; 海南省人力资源和社会保障厅 &gt; 海南省教育厅 &gt; 海南省卫生健康委员会 &gt; 海南省公安厅 &gt; 海南省司法厅 &gt; 海南省民政厅 &gt; 海南省民族宗教事务委员会 &gt; 海南省住房和城乡建设厅 &gt; 海南省交通运输厅 &gt; 海南省审计厅 &gt; 海南省外事办公室 &gt; 海南省水务厅 &gt; 海南省退役军人事务厅 &gt; 海南省应急管理厅 &gt; 海南省国有资产监督管理委员会 &gt; 海南省地方金融监督管理局 &gt; 海南省统计局 &gt; 海南省市场监督管理局 &gt; 海南省林业局 &gt; 海南省医疗保障局 &gt; 海南省乡村振兴局 &gt; 海南省地质局 &gt; 海南省供销合作联社 &gt; 海南省住房公积金管理局 &gt; 海南省社会保险服务中心']</t>
         </is>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>海南省</t>
-        </is>
+      <c r="A6" t="n">
+        <v>224</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>三沙市</t>
+          <t>海南省</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
+          <t>三沙市</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
           <t>市人民检察院传达学习习近平总书记考察海南时的重要讲话精神</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>2022-04-28</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>http://www.sansha.gov.cn/sansha/sysdt/202204/d70e1aeeeafc417db6c25615588df285.shtml</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="G6" t="inlineStr">
         <is>
           <t>['市人民检察院传达学习习近平总书记考察海南时的重要讲话精神_三沙动态_三沙市人民政府网', '4月28日，市人民检察院在永兴岛召开专题会，传达学习习近平总书记考察海南时的重要讲话精神，研究部署贯彻落实工作。', '会议指出，习近平总书记的重要讲话立意高远、思想深刻、内涵丰富，对种业创新、粮食安全、海洋科技、海南自由贸易港建设等方面作出了一系列重要指示，为海南在新的历史起点上高质量发展提供了根本遵循和行动指南。 市两级检察院全体干警要把学习贯彻习近平总书记重要讲话精神作为一项重要政治任务，结合职能职责抓好落实，充分发挥法律监督职能作用，凝聚南海生态环境保护工作合力，为海南自贸港建设提供更加优质高效的检察服务和保障。', '4月28日，市人民检察院在永兴岛召开专题会，传达学习习近平总书记考察海南时的重要讲话精神。许文 摄', '省直部门 &gt; 海南省人民政府办公厅 &gt; 海南省发展和改革委员会 &gt; 海南省营商环境建设厅 &gt; 海南省自然资源和规划厅 &gt; 海南省旅游和文化广电体育厅 &gt; 海南省生态环境厅 &gt; 海南省农业农村厅 &gt; 海南省工业和信息化厅 &gt; 海南省商务厅 &gt; 海南省科学技术厅 &gt; 海南省财政厅 &gt; 海南省人力资源和社会保障厅 &gt; 海南省教育厅 &gt; 海南省卫生健康委员会 &gt; 海南省公安厅 &gt; 海南省司法厅 &gt; 海南省民政厅 &gt; 海南省民族宗教事务委员会 &gt; 海南省住房和城乡建设厅 &gt; 海南省交通运输厅 &gt; 海南省审计厅 &gt; 海南省外事办公室 &gt; 海南省水务厅 &gt; 海南省退役军人事务厅 &gt; 海南省应急管理厅 &gt; 海南省国有资产监督管理委员会 &gt; 海南省地方金融监督管理局 &gt; 海南省统计局 &gt; 海南省市场监督管理局 &gt; 海南省林业局 &gt; 海南省医疗保障局 &gt; 海南省乡村振兴局 &gt; 海南省地质局 &gt; 海南省供销合作联社 &gt; 海南省住房公积金管理局 &gt; 海南省社会保险服务中心']</t>
         </is>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>海南省</t>
-        </is>
+      <c r="A7" t="n">
+        <v>224</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>三沙市</t>
+          <t>海南省</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
+          <t>三沙市</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
           <t>永兴工委传达学习习近平总书记在海南考察时重要讲话精神</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>2022-04-26</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>http://www.sansha.gov.cn/sansha/sysdt/202204/33fafe492b7e4c5c97ff4fec9354962b.shtml</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="G7" t="inlineStr">
         <is>
           <t>['4月25日，永兴工委召开工委专题学习会，传达学习习近平总书记在海南考察时的重要讲话精神。', '会议强调，工委要迅速掀起学习热潮，将全面深入系统学习习近平总书记的重要讲话和重要指示精神作为首要政治任务，各支部要重温习近平总书记“4·13”重要讲话精神及习近平总书记关于海南自由贸易港建设的重要论述，进一步坚定投身自贸港建设的信心，不断提升建设自贸港的能力。', '会议指出，要将学习贯彻习近平总书记视察海南时的重要讲话精神与实际工作相结合，紧紧围绕“维权、维稳、保护、开发”八字方针，努力做到学深悟透、知行合一；要心怀“国之大者”，全力谋划落实，把习近平总书记视察海南时的重要讲话精神与工作实际相结合，不折不扣落实到工委工作各个环节；要以省委、市委“能力提升建设年”活动为契机，切实加强干部队伍建设，进一步提高政治能力、业务能力。（文/赵文浩）', '4月25日，永兴工委召开工委专题学习会，传达学习习近平总书记在海南考察时的重要讲话精神。赵文浩 摄', '省直部门 &gt; 海南省人民政府办公厅 &gt; 海南省发展和改革委员会 &gt; 海南省营商环境建设厅 &gt; 海南省自然资源和规划厅 &gt; 海南省旅游和文化广电体育厅 &gt; 海南省生态环境厅 &gt; 海南省农业农村厅 &gt; 海南省工业和信息化厅 &gt; 海南省商务厅 &gt; 海南省科学技术厅 &gt; 海南省财政厅 &gt; 海南省人力资源和社会保障厅 &gt; 海南省教育厅 &gt; 海南省卫生健康委员会 &gt; 海南省公安厅 &gt; 海南省司法厅 &gt; 海南省民政厅 &gt; 海南省民族宗教事务委员会 &gt; 海南省住房和城乡建设厅 &gt; 海南省交通运输厅 &gt; 海南省审计厅 &gt; 海南省外事办公室 &gt; 海南省水务厅 &gt; 海南省退役军人事务厅 &gt; 海南省应急管理厅 &gt; 海南省国有资产监督管理委员会 &gt; 海南省地方金融监督管理局 &gt; 海南省统计局 &gt; 海南省市场监督管理局 &gt; 海南省林业局 &gt; 海南省医疗保障局 &gt; 海南省乡村振兴局 &gt; 海南省地质局 &gt; 海南省供销合作联社 &gt; 海南省住房公积金管理局 &gt; 海南省社会保险服务中心']</t>
         </is>
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>海南省</t>
-        </is>
+      <c r="A8" t="n">
+        <v>224</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>三沙市</t>
+          <t>海南省</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
+          <t>三沙市</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
           <t>市社工局传达学习习近平总书记考察海南时的重要讲话精神</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>2022-06-02</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>http://www.sansha.gov.cn/sansha/sysdt/202206/741e99324ee64fa9a086c45e93ddc8da.shtml</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="G8" t="inlineStr">
         <is>
           <t>['本网讯 6月1日，市社会工作局召开理论中心组(扩大)学习会议，传达学习了习近平总书记今年4月份考察海南时的重要讲话精神以及省第八次党代会精神。', '会议指出，要把学习省第八次党代会精神与贯彻落实习近平总书记考察海南时的重要讲话精神紧密结合，并作为当前和今后一段时期的重要政治任务，通过集中学习等形式学深悟透、学懂弄通、学以致用，把学习成果转化为推动市社会工作局高质量发展的强大动力和力量源泉。', '会议强调，准确把握职责定位，深刻领会习近平总书记重要指示批示精神，深刻领会党中央的重大决策部署，按照“维权、维稳、保护、开发”的使命担当，扎实做好军民融合双拥工作和设施共建共享共保等民生工作。', '会议要求，要服从服务国家建设大局，自觉站在国家建设大局看问题，发扬“爱国爱岛，乐守天涯”的西沙精神，以“能力提升建设年”为契机，不断提升干部的干事创业能力，培养一支政治站位高，德行合一、清正廉洁、能力素质过硬的干部队伍，不断开创社工局各项事业建设的新局面。', '会上，与会党组成员结合分管工作就贯彻落实习近平总书记的重要讲话精神及省第八次党代会精神作交流发言。', '省直部门 &gt; 海南省人民政府办公厅 &gt; 海南省发展和改革委员会 &gt; 海南省营商环境建设厅 &gt; 海南省自然资源和规划厅 &gt; 海南省旅游和文化广电体育厅 &gt; 海南省生态环境厅 &gt; 海南省农业农村厅 &gt; 海南省工业和信息化厅 &gt; 海南省商务厅 &gt; 海南省科学技术厅 &gt; 海南省财政厅 &gt; 海南省人力资源和社会保障厅 &gt; 海南省教育厅 &gt; 海南省卫生健康委员会 &gt; 海南省公安厅 &gt; 海南省司法厅 &gt; 海南省民政厅 &gt; 海南省民族宗教事务委员会 &gt; 海南省住房和城乡建设厅 &gt; 海南省交通运输厅 &gt; 海南省审计厅 &gt; 海南省外事办公室 &gt; 海南省水务厅 &gt; 海南省退役军人事务厅 &gt; 海南省应急管理厅 &gt; 海南省国有资产监督管理委员会 &gt; 海南省地方金融监督管理局 &gt; 海南省统计局 &gt; 海南省市场监督管理局 &gt; 海南省林业局 &gt; 海南省医疗保障局 &gt; 海南省乡村振兴局 &gt; 海南省地质局 &gt; 海南省供销合作联社 &gt; 海南省住房公积金管理局 &gt; 海南省社会保险服务中心']</t>
         </is>
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>海南省</t>
-        </is>
+      <c r="A9" t="n">
+        <v>224</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>三沙市</t>
+          <t>海南省</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
+          <t>三沙市</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
           <t>市委宣传部机关党支部传达学习贯彻习近平总书记考察海南时的重要讲话精神</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>2022-05-05</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>http://www.sansha.gov.cn/sansha/sysdt/202205/22099621cb504767b570a33b611983d1.shtml</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="G9" t="inlineStr">
         <is>
           <t>['市委宣传部机关党支部传达学习贯彻习近平总书记考察海南时的重要讲话精神_三沙动态_三沙市人民政府网', '本网讯 日前，市委宣传部机关党支部召开党员大会，传达学习习近平总书记考察海南时的重要讲话精神以及省委常委会和市委常委会学习习近平总书记考察海南时重要讲话精神的部署要求。', '会议指出，党员要始终心系“国之大者”，自觉站在党和国家发展大局，坚定不移地沿着习近平总书记指引的方向前进。要主动履行好三沙使命任务和宣传部职能，迅速组织推动全市宣传学习活动，学在先，行在先。', '会议要求，支部党员要紧密结合深入一线调研的要求，结合三沙工作实际，进一步解放思想，创新工作方式方法，大兴调查研究之风，沉到岛礁一线深入全面了解情况，破解发展难题。', '市委宣传部机关党支部还组织党员深入赵述岛，调研七连屿工委新时代文明实践中心建设情况，开展主题党日活动，党支部书记赵学灵表示将全力推动习近平新时代中国特色社会主义思想阵地建设，不断满足岛礁群众精神文化生活的需要。（文/谢雯婕）', '省直部门 &gt; 海南省人民政府办公厅 &gt; 海南省发展和改革委员会 &gt; 海南省营商环境建设厅 &gt; 海南省自然资源和规划厅 &gt; 海南省旅游和文化广电体育厅 &gt; 海南省生态环境厅 &gt; 海南省农业农村厅 &gt; 海南省工业和信息化厅 &gt; 海南省商务厅 &gt; 海南省科学技术厅 &gt; 海南省财政厅 &gt; 海南省人力资源和社会保障厅 &gt; 海南省教育厅 &gt; 海南省卫生健康委员会 &gt; 海南省公安厅 &gt; 海南省司法厅 &gt; 海南省民政厅 &gt; 海南省民族宗教事务委员会 &gt; 海南省住房和城乡建设厅 &gt; 海南省交通运输厅 &gt; 海南省审计厅 &gt; 海南省外事办公室 &gt; 海南省水务厅 &gt; 海南省退役军人事务厅 &gt; 海南省应急管理厅 &gt; 海南省国有资产监督管理委员会 &gt; 海南省地方金融监督管理局 &gt; 海南省统计局 &gt; 海南省市场监督管理局 &gt; 海南省林业局 &gt; 海南省医疗保障局 &gt; 海南省乡村振兴局 &gt; 海南省地质局 &gt; 海南省供销合作联社 &gt; 海南省住房公积金管理局 &gt; 海南省社会保险服务中心']</t>
         </is>
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>海南省</t>
-        </is>
+      <c r="A10" t="n">
+        <v>224</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>三沙市</t>
+          <t>海南省</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
+          <t>三沙市</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
           <t>我市举办学习贯彻习近平总书记考察海南重要讲话精神和省第八次党代会精神专题辅导讲座</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>2022-05-31</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="F10" t="inlineStr">
         <is>
           <t>http://www.sansha.gov.cn/sansha/sysdt/202205/1499b6e2628f4c369516334cdf2fe891.shtml</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="G10" t="inlineStr">
         <is>
           <t>['我市举办学习贯彻习近平总书记考察海南重要讲话精神和省第八次党代会精神专题辅导讲座_三沙动态_三沙市人民政府网', '本网讯 5月30日，我市举办学习贯彻习近平总书记考察海南时重要讲话精神和省第八次党代会精神专题辅导讲座，全市处级及以下干部、公务员、市属企事业单位班子成员、社区“两委”干部参加学习。', '讲座现场，海南省委党校法学教研部主任程良波教授以《加快建设具有世界影响力的中国特色自由贸易港》为题，从“习近平总书记对自贸港建设作出新指示”“完整、准确、全面贯彻新发展理念”“着力打造自贸港一流的营商环境”“始终坚持正确政治方向”等四个方面对习近平总书记考察海南重要讲话精神和省第八次党代会精神作了深刻透彻的分析解读，具有很强的理论性、指导性和实践性。', '参加讲座的干部群众表示，将认真贯彻落实习近平总书记考察海南时重要讲话精神和省第八次党代会精神，抓住思想武装的核心要义，抓住能力提升的关键环节，抓住知行合一的根本实践。在实际工作中，锤炼绝对忠诚的政治品格，凝聚高度自觉的大局意识，坚持廉洁自律的道德操守，为守好祖国南大门和建设美好新三沙积极奉献力量。', '5月30日，我市举办学习贯彻习近平总书记考察海南时重要讲话精神和省第八次党代会精神专题辅导讲座。许文 摄', '省直部门 &gt; 海南省人民政府办公厅 &gt; 海南省发展和改革委员会 &gt; 海南省营商环境建设厅 &gt; 海南省自然资源和规划厅 &gt; 海南省旅游和文化广电体育厅 &gt; 海南省生态环境厅 &gt; 海南省农业农村厅 &gt; 海南省工业和信息化厅 &gt; 海南省商务厅 &gt; 海南省科学技术厅 &gt; 海南省财政厅 &gt; 海南省人力资源和社会保障厅 &gt; 海南省教育厅 &gt; 海南省卫生健康委员会 &gt; 海南省公安厅 &gt; 海南省司法厅 &gt; 海南省民政厅 &gt; 海南省民族宗教事务委员会 &gt; 海南省住房和城乡建设厅 &gt; 海南省交通运输厅 &gt; 海南省审计厅 &gt; 海南省外事办公室 &gt; 海南省水务厅 &gt; 海南省退役军人事务厅 &gt; 海南省应急管理厅 &gt; 海南省国有资产监督管理委员会 &gt; 海南省地方金融监督管理局 &gt; 海南省统计局 &gt; 海南省市场监督管理局 &gt; 海南省林业局 &gt; 海南省医疗保障局 &gt; 海南省乡村振兴局 &gt; 海南省地质局 &gt; 海南省供销合作联社 &gt; 海南省住房公积金管理局 &gt; 海南省社会保险服务中心']</t>
         </is>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>海南省</t>
-        </is>
+      <c r="A11" t="n">
+        <v>224</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>三沙市</t>
+          <t>海南省</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
+          <t>三沙市</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
           <t>市公安局传达学习习近平总书记在海南考察时的重要讲话精神</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
+      <c r="E11" t="inlineStr">
         <is>
           <t>2022-04-24</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
+      <c r="F11" t="inlineStr">
         <is>
           <t>http://www.sansha.gov.cn/sansha/tjxwbd/202204/be081b26de0c4c0a887de2e8cdb326a7.shtml</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="G11" t="inlineStr">
         <is>
           <t>['市公安局传达学习习近平总书记在海南考察时的重要讲话精神_新闻报道_三沙市人民政府网', '4月22日，市公安局召开局党委理论中心组（扩大）学习会，专题传达学习习近平总书记在海南考察时的重要讲话精神。', '会议指出，要采取集中学习、个人自学相结合的形式，迅速组织学习贯彻落实习近平总书记考察海南时的重要指示精神，营造浓厚的学习氛围，确保学深悟透，将习近平同志重要指示精神传达到每一名民警、辅警。', '会议强调，要紧紧围绕“维权、维稳、保护、开发”的主旨，发挥公安机关在维权、维稳方面的作用，全力维护社会大局稳定。要以深化“能力提升建设年”活动为抓手，进一步强化干部队伍素质能力建设，始终坚持全面从严治党治警，巩固深化队伍教育整顿成果，建立一支敢打敢拼、能打胜仗的公安队伍，服务中国特色自由贸易港建设。', '4月22日，市公安局召开局党委理论中心组（扩大）学习会，专题传达学习习近平总书记在海南考察时重要讲话精神。王梅芬 摄', '省直部门 &gt; 海南省人民政府办公厅 &gt; 海南省发展和改革委员会 &gt; 海南省营商环境建设厅 &gt; 海南省自然资源和规划厅 &gt; 海南省旅游和文化广电体育厅 &gt; 海南省生态环境厅 &gt; 海南省农业农村厅 &gt; 海南省工业和信息化厅 &gt; 海南省商务厅 &gt; 海南省科学技术厅 &gt; 海南省财政厅 &gt; 海南省人力资源和社会保障厅 &gt; 海南省教育厅 &gt; 海南省卫生健康委员会 &gt; 海南省公安厅 &gt; 海南省司法厅 &gt; 海南省民政厅 &gt; 海南省民族宗教事务委员会 &gt; 海南省住房和城乡建设厅 &gt; 海南省交通运输厅 &gt; 海南省审计厅 &gt; 海南省外事办公室 &gt; 海南省水务厅 &gt; 海南省退役军人事务厅 &gt; 海南省应急管理厅 &gt; 海南省国有资产监督管理委员会 &gt; 海南省地方金融监督管理局 &gt; 海南省统计局 &gt; 海南省市场监督管理局 &gt; 海南省林业局 &gt; 海南省医疗保障局 &gt; 海南省乡村振兴局 &gt; 海南省地质局 &gt; 海南省供销合作联社 &gt; 海南省住房公积金管理局 &gt; 海南省社会保险服务中心']</t>
         </is>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>海南省</t>
-        </is>
+      <c r="A12" t="n">
+        <v>224</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>三沙市</t>
+          <t>海南省</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
+          <t>三沙市</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
           <t>三沙市退休老干部集体学习习近平总书记考察海南时的重要讲话精神</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
+      <c r="E12" t="inlineStr">
         <is>
           <t>2022-04-18</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
+      <c r="F12" t="inlineStr">
         <is>
           <t>http://www.sansha.gov.cn/sansha/sysdt/202204/aea5ce5e8afd45e3b88ea67691299aff.shtml</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="G12" t="inlineStr">
         <is>
           <t>['三沙市退休老干部集体学习习近平总书记考察海南时的重要讲话精神_三沙动态_三沙市人民政府网', '本网讯 4月18日，在三沙市委组织部的组织下，三沙市海口退休支部委员会和三沙市文昌退休支部委员会全体老干部集体学习习近平总书记考察海南时的重要讲话精神。', '会议指出，在全岛封关运作准备工作加快推进的重要时刻，习近平总书记亲临海南考察指导，并发表了立意高远、思想深刻、内涵丰富的重要讲话，赋予海南新的使命，提出更高要求，意义重大、影响深远。三沙市退休老干部一直以来都非常关心三沙的建设和发展，三沙取得的每一点成绩也离不开老干部们在早年发展困难时期打下的坚实基础，希望老干部继续关心三沙，为三沙未来的发展建言献策。', '老干部们纷纷表示，习近平总书记考察海南时的重要讲话精神内涵丰富，影响深远，对推动三沙发展实践具有重要的指导意义。将认真学习、深刻领会，继续关注和支持三沙经济社会发展，积极献计出力，发挥余热，为三沙的事业增添正能量。', '省直部门 &gt; 海南省人民政府办公厅 &gt; 海南省发展和改革委员会 &gt; 海南省营商环境建设厅 &gt; 海南省自然资源和规划厅 &gt; 海南省旅游和文化广电体育厅 &gt; 海南省生态环境厅 &gt; 海南省农业农村厅 &gt; 海南省工业和信息化厅 &gt; 海南省商务厅 &gt; 海南省科学技术厅 &gt; 海南省财政厅 &gt; 海南省人力资源和社会保障厅 &gt; 海南省教育厅 &gt; 海南省卫生健康委员会 &gt; 海南省公安厅 &gt; 海南省司法厅 &gt; 海南省民政厅 &gt; 海南省民族宗教事务委员会 &gt; 海南省住房和城乡建设厅 &gt; 海南省交通运输厅 &gt; 海南省审计厅 &gt; 海南省外事办公室 &gt; 海南省水务厅 &gt; 海南省退役军人事务厅 &gt; 海南省应急管理厅 &gt; 海南省国有资产监督管理委员会 &gt; 海南省地方金融监督管理局 &gt; 海南省统计局 &gt; 海南省市场监督管理局 &gt; 海南省林业局 &gt; 海南省医疗保障局 &gt; 海南省乡村振兴局 &gt; 海南省地质局 &gt; 海南省供销合作联社 &gt; 海南省住房公积金管理局 &gt; 海南省社会保险服务中心']</t>
         </is>
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>海南省</t>
-        </is>
+      <c r="A13" t="n">
+        <v>224</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>三沙市</t>
+          <t>海南省</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
+          <t>三沙市</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
           <t>三沙市多部门传达学习习近平总书记在海南考察时的重要讲话精神</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
+      <c r="E13" t="inlineStr">
         <is>
           <t>2022-04-25</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
+      <c r="F13" t="inlineStr">
         <is>
           <t>http://www.sansha.gov.cn/sansha/sysdt/202204/699dc992dc44401286d26a41b25fb412.shtml</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
+      <c r="G13" t="inlineStr">
         <is>
           <t>['三沙市多部门传达学习习近平总书记在海南考察时的重要讲话精神_三沙动态_三沙市人民政府网', '本网讯 4月18日，市委宣传部召开部务会传达学习习近平总书记在海南考察时的重要讲话精神，传达学习省委常委会扩大会议和市委常委会学习习近平总书记考察海南时的重要讲话精神，并就学习贯彻落实工作进行安排部署。市委副书记、宣传部部长、市委政法委书记傅君利参加会议。', '会议强调，宣传政法部门要提高政治站位，增强政治敏锐性。通过多种形式，认真抓好习近平总书记视察海南时的重要讲话精神的学习活动，结合工作实际，把习近平总书记的重要讲话精神切实落实到三沙的宣传、政法工作，落实到意识形态的各个环节。', '会议表示，要全力抓好习近平总书记重要讲话精神学习、宣讲活动的宣传工作，要制定理论学习中心组学习方案，推动全市的学习贯彻；要制定新闻报道方案，提出报道思路，把各单位各部门深入开展学习活动及时准确做好新闻报道，掀起我市学习习近平总书记重要讲话精神热潮。', '4月18日，市委宣传部召开部务会传达学习习近平总书记在海南考察时的重要讲话精神。黎阳宝 摄', '4月21日，市新闻中心召开党支部扩大会议，传达学习了习近平总书记在海南考察时的重要讲话精神，传达学习省委常委会扩大会议和市委常委会传达学习习近平总书记考察海南时的重要讲话精神。', '会议要求，要立即制定宣传报道计划，派出采编人员深入各单位各岛礁一线，全力做好传达学习习近平总书记视察海南时的重要讲话精神的新闻报道，要主动挖掘在学习宣传、宣讲工作中涌现出的好经验、好做法，及时报道先进事迹、先进典型，正确引导舆论，把全市掀起学习、宣传、贯彻习近平总书记视察海南时重要讲话精神的热潮准确、及时报道好。', '4月25日，三沙市信息中心召开党支部专题学习会议，传达学习习近平总书记在海南考察时的重要讲话精神。', '会议指出，信息中心要把学习贯彻习近平总书记在海南考察的重要讲话精神作为当前最重要的政治任务。要结合“能力提升建设年”活动，认真做好本职工作。一是保障好基础通信网络，确保岛礁间网络运行顺畅。二是全力推进我市信息化基础设施建设，确保通信建设顺利实施，为谱写三沙“维权、维稳、保护、开发”新篇章贡献力量。（文/刘玮 王茜茜）', '4月25日，三沙市信息中心召开党支部专题学习会议，传达学习习近平总书记在海南考察时的重要讲话精神。许明新 摄', '省直部门 &gt; 海南省人民政府办公厅 &gt; 海南省发展和改革委员会 &gt; 海南省营商环境建设厅 &gt; 海南省自然资源和规划厅 &gt; 海南省旅游和文化广电体育厅 &gt; 海南省生态环境厅 &gt; 海南省农业农村厅 &gt; 海南省工业和信息化厅 &gt; 海南省商务厅 &gt; 海南省科学技术厅 &gt; 海南省财政厅 &gt; 海南省人力资源和社会保障厅 &gt; 海南省教育厅 &gt; 海南省卫生健康委员会 &gt; 海南省公安厅 &gt; 海南省司法厅 &gt; 海南省民政厅 &gt; 海南省民族宗教事务委员会 &gt; 海南省住房和城乡建设厅 &gt; 海南省交通运输厅 &gt; 海南省审计厅 &gt; 海南省外事办公室 &gt; 海南省水务厅 &gt; 海南省退役军人事务厅 &gt; 海南省应急管理厅 &gt; 海南省国有资产监督管理委员会 &gt; 海南省地方金融监督管理局 &gt; 海南省统计局 &gt; 海南省市场监督管理局 &gt; 海南省林业局 &gt; 海南省医疗保障局 &gt; 海南省乡村振兴局 &gt; 海南省地质局 &gt; 海南省供销合作联社 &gt; 海南省住房公积金管理局 &gt; 海南省社会保险服务中心']</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>海南省</t>
-        </is>
+      <c r="A14" t="n">
+        <v>224</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>三沙市</t>
+          <t>海南省</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
+          <t>三沙市</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
           <t>我市老干部和老干部工作者学习习近平总书记考察海南时的重要讲话精神</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
+      <c r="E14" t="inlineStr">
         <is>
           <t>2022-04-19</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
+      <c r="F14" t="inlineStr">
         <is>
           <t>http://www.sansha.gov.cn/sansha/sysdt/202204/dd2f1570844a47fea972515043b5b824.shtml</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
+      <c r="G14" t="inlineStr">
         <is>
           <t>['我市老干部和老干部工作者学习习近平总书记考察海南时的重要讲话精神_三沙动态_三沙市人民政府网', '市退休老干部、老党员和老干部工作者通过视频会议、微信、电视、报纸、专题宣讲等多种方式学习习近平总书记', '白米饭、白肉、白冬瓜，今天的好日子来之不易，我一定积极向我的家人、向下一代讲好勤劳节俭', '纪念章获得者叶能坚谈到：“作为老党员，我要坚决按照习近平总书记的要求，努力做到学史明理、学史崇德、学史增信，学史力行，传承好红色基因，赓续红色血脉，讲好', '三沙市海口退休党支部书记许环洲同志表示，“我要把学习、研究、宣传、贯彻习近平总书记在海南考察时的', '讲话精神作为当前和今后一个时期的首要政治任务，引导广大老干部、老党员把言行统一到讲话精神上来。”', '面对新时代新征程新使命，作为老干部、老党员更应该牢记“国之大者”，离岗不离党、退休不褪色，深刻把握习近平总书记重要讲话精神，不断增强“四个意识”、坚定“四个自信”、做到“两个维护”，充分发挥政治优势、经验优势、威望优势，紧扣海南自由贸易港建设和三沙新发展这条主线，不断贡献余热生辉的磅礴力量', '连日来，我市退休老干部、老党员和老干部工作者通过多种方式学习习近平总书记考察海南时的重要讲话精神，畅谈自己的心得体会。符宵铭 摄', '省直部门 &gt; 海南省人民政府办公厅 &gt; 海南省发展和改革委员会 &gt; 海南省营商环境建设厅 &gt; 海南省自然资源和规划厅 &gt; 海南省旅游和文化广电体育厅 &gt; 海南省生态环境厅 &gt; 海南省农业农村厅 &gt; 海南省工业和信息化厅 &gt; 海南省商务厅 &gt; 海南省科学技术厅 &gt; 海南省财政厅 &gt; 海南省人力资源和社会保障厅 &gt; 海南省教育厅 &gt; 海南省卫生健康委员会 &gt; 海南省公安厅 &gt; 海南省司法厅 &gt; 海南省民政厅 &gt; 海南省民族宗教事务委员会 &gt; 海南省住房和城乡建设厅 &gt; 海南省交通运输厅 &gt; 海南省审计厅 &gt; 海南省外事办公室 &gt; 海南省水务厅 &gt; 海南省退役军人事务厅 &gt; 海南省应急管理厅 &gt; 海南省国有资产监督管理委员会 &gt; 海南省地方金融监督管理局 &gt; 海南省统计局 &gt; 海南省市场监督管理局 &gt; 海南省林业局 &gt; 海南省医疗保障局 &gt; 海南省乡村振兴局 &gt; 海南省地质局 &gt; 海南省供销合作联社 &gt; 海南省住房公积金管理局 &gt; 海南省社会保险服务中心']</t>
         </is>
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>海南省</t>
-        </is>
+      <c r="A15" t="n">
+        <v>224</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>三沙市</t>
+          <t>海南省</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
+          <t>三沙市</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
           <t>七连屿工委召开扩大会议传达学习习近平总书记考察海南时的重要讲话精神</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr">
+      <c r="E15" t="inlineStr">
         <is>
           <t>2022-04-19</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
+      <c r="F15" t="inlineStr">
         <is>
           <t>http://www.sansha.gov.cn/sansha/sysdt/202204/70bcea8f5a164dd1a90386c24a4eec9b.shtml</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr">
+      <c r="G15" t="inlineStr">
         <is>
           <t>['七连屿工委召开（扩大）会议传达学习习近平总书记考察海南时的重要讲话精神_三沙动态_三沙市人民政府网', '4月19日，七连屿工委召开第5次工委（扩大）会议，传达学习习近平总书记考察海南时的重要讲话精神。', '会议强调，工委要把学习贯彻习近平总书记考察海南时的重要讲话精神作为当前首要政治任务，工委要通过扩大会、党支部会、员工大会等多种形式组织学习宣传活动，迅速在七连屿各基层掀起学习热潮，进一步提高思想认识，坚定理想信念，扛起“维权、维稳、保护、开发”的责任担当。', '会议要求，要结合七连屿工作实际学，原原本本学，用习近平总书记考察海南时的重要讲话精神指导七连屿实践，推动七连屿的建设和发展。要坚持党的领导不动摇，深入推进全面从严治党，坚持维护国家安全不动摇，扎实做好安全生产和社会治理工作，坚决落实生态环境保护的政治责任和主体责任，扎实推进社区建设，持续推动民生改善，在基层治理上提质增效。同时要统筹社会发展和疫情防控工作，抓细抓实疫情防控各项措施，努力把七连屿打造成三沙的靓丽名片。（文/潘思羽）', '4月19日，七连屿工委召开第5次工委（扩大）会议，传达学习习近平总书记考察海南时的重要讲话精神。潘思羽 摄', '省直部门 &gt; 海南省人民政府办公厅 &gt; 海南省发展和改革委员会 &gt; 海南省营商环境建设厅 &gt; 海南省自然资源和规划厅 &gt; 海南省旅游和文化广电体育厅 &gt; 海南省生态环境厅 &gt; 海南省农业农村厅 &gt; 海南省工业和信息化厅 &gt; 海南省商务厅 &gt; 海南省科学技术厅 &gt; 海南省财政厅 &gt; 海南省人力资源和社会保障厅 &gt; 海南省教育厅 &gt; 海南省卫生健康委员会 &gt; 海南省公安厅 &gt; 海南省司法厅 &gt; 海南省民政厅 &gt; 海南省民族宗教事务委员会 &gt; 海南省住房和城乡建设厅 &gt; 海南省交通运输厅 &gt; 海南省审计厅 &gt; 海南省外事办公室 &gt; 海南省水务厅 &gt; 海南省退役军人事务厅 &gt; 海南省应急管理厅 &gt; 海南省国有资产监督管理委员会 &gt; 海南省地方金融监督管理局 &gt; 海南省统计局 &gt; 海南省市场监督管理局 &gt; 海南省林业局 &gt; 海南省医疗保障局 &gt; 海南省乡村振兴局 &gt; 海南省地质局 &gt; 海南省供销合作联社 &gt; 海南省住房公积金管理局 &gt; 海南省社会保险服务中心']</t>
         </is>
